--- a/state_results/Contact_Recreation/WaikawaatWaikawaCampsite_bba6ad69e4.xlsx
+++ b/state_results/Contact_Recreation/WaikawaatWaikawaCampsite_bba6ad69e4.xlsx
@@ -908,7 +908,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>2017 - 2021</t>
@@ -1344,7 +1348,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>2018 - 2022</t>

--- a/state_results/Contact_Recreation/WaikawaatWaikawaCampsite_bba6ad69e4.xlsx
+++ b/state_results/Contact_Recreation/WaikawaatWaikawaCampsite_bba6ad69e4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="45">
   <si>
     <t>site name</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
+  </si>
+  <si>
+    <t>2021 - 2025</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -500,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,13 +594,13 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>63</v>
       </c>
       <c r="G2">
-        <v>138.757973992427</v>
+        <v>138.755218827307</v>
       </c>
       <c r="H2">
         <v>2187</v>
@@ -627,19 +633,19 @@
         <v>5489729</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -656,13 +662,13 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>63</v>
       </c>
       <c r="G3">
-        <v>138.757973992427</v>
+        <v>138.755218827307</v>
       </c>
       <c r="H3">
         <v>2187</v>
@@ -695,19 +701,19 @@
         <v>5489729</v>
       </c>
       <c r="R3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -724,13 +730,13 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>63</v>
       </c>
       <c r="G4">
-        <v>138.757973992427</v>
+        <v>138.755218827307</v>
       </c>
       <c r="H4">
         <v>2187</v>
@@ -763,19 +769,19 @@
         <v>5489729</v>
       </c>
       <c r="R4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -792,13 +798,13 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>63</v>
       </c>
       <c r="G5">
-        <v>138.757973992427</v>
+        <v>138.755218827307</v>
       </c>
       <c r="H5">
         <v>2187</v>
@@ -831,19 +837,19 @@
         <v>5489729</v>
       </c>
       <c r="R5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -860,13 +866,13 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>63</v>
       </c>
       <c r="G6">
-        <v>138.757973992427</v>
+        <v>138.755218827307</v>
       </c>
       <c r="H6">
         <v>2187</v>
@@ -899,19 +905,19 @@
         <v>5489729</v>
       </c>
       <c r="R6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -928,13 +934,13 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>63</v>
       </c>
       <c r="G7">
-        <v>135.763357265697</v>
+        <v>135.761227878153</v>
       </c>
       <c r="H7">
         <v>2187</v>
@@ -967,19 +973,19 @@
         <v>5489729</v>
       </c>
       <c r="R7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -996,13 +1002,13 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>63</v>
       </c>
       <c r="G8">
-        <v>135.763357265697</v>
+        <v>135.761227878153</v>
       </c>
       <c r="H8">
         <v>2187</v>
@@ -1035,19 +1041,19 @@
         <v>5489729</v>
       </c>
       <c r="R8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1064,13 +1070,13 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>63</v>
       </c>
       <c r="G9">
-        <v>135.763357265697</v>
+        <v>135.761227878153</v>
       </c>
       <c r="H9">
         <v>2187</v>
@@ -1103,19 +1109,19 @@
         <v>5489729</v>
       </c>
       <c r="R9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1132,13 +1138,13 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <v>63</v>
       </c>
       <c r="G10">
-        <v>135.763357265697</v>
+        <v>135.761227878153</v>
       </c>
       <c r="H10">
         <v>2187</v>
@@ -1171,19 +1177,19 @@
         <v>5489729</v>
       </c>
       <c r="R10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1200,13 +1206,13 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>63</v>
       </c>
       <c r="G11">
-        <v>135.763357265697</v>
+        <v>135.761227878153</v>
       </c>
       <c r="H11">
         <v>2187</v>
@@ -1239,19 +1245,19 @@
         <v>5489729</v>
       </c>
       <c r="R11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1268,13 +1274,13 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>41</v>
       </c>
       <c r="G12">
-        <v>121.182925141117</v>
+        <v>121.181247712399</v>
       </c>
       <c r="H12">
         <v>2187</v>
@@ -1307,19 +1313,19 @@
         <v>5489729</v>
       </c>
       <c r="R12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1336,13 +1342,13 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>41</v>
       </c>
       <c r="G13">
-        <v>121.182925141117</v>
+        <v>121.181247712399</v>
       </c>
       <c r="H13">
         <v>2187</v>
@@ -1375,19 +1381,19 @@
         <v>5489729</v>
       </c>
       <c r="R13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1404,13 +1410,13 @@
         <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>41</v>
       </c>
       <c r="G14">
-        <v>121.182925141117</v>
+        <v>121.181247712399</v>
       </c>
       <c r="H14">
         <v>2187</v>
@@ -1443,19 +1449,19 @@
         <v>5489729</v>
       </c>
       <c r="R14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1472,13 +1478,13 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15">
         <v>41</v>
       </c>
       <c r="G15">
-        <v>121.182925141117</v>
+        <v>121.181247712399</v>
       </c>
       <c r="H15">
         <v>2187</v>
@@ -1511,19 +1517,19 @@
         <v>5489729</v>
       </c>
       <c r="R15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="V15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1540,13 +1546,13 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F16">
         <v>41</v>
       </c>
       <c r="G16">
-        <v>121.182925141117</v>
+        <v>121.181247712399</v>
       </c>
       <c r="H16">
         <v>2187</v>
@@ -1579,19 +1585,699 @@
         <v>5489729</v>
       </c>
       <c r="R16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S16" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" t="s">
+        <v>40</v>
+      </c>
+      <c r="U16" t="s">
+        <v>41</v>
+      </c>
+      <c r="V16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17">
+        <v>41</v>
+      </c>
+      <c r="G17">
+        <v>122.992268862672</v>
+      </c>
+      <c r="H17">
+        <v>2187</v>
+      </c>
+      <c r="I17">
+        <v>425.4</v>
+      </c>
+      <c r="J17">
+        <v>4.0983606557377</v>
+      </c>
+      <c r="K17">
+        <v>8.196721311475409</v>
+      </c>
+      <c r="L17">
+        <v>52</v>
+      </c>
+      <c r="M17">
+        <v>108.1</v>
+      </c>
+      <c r="N17">
+        <v>118.36</v>
+      </c>
+      <c r="O17">
+        <v>272.28</v>
+      </c>
+      <c r="P17">
+        <v>1789797</v>
+      </c>
+      <c r="Q17">
+        <v>5489729</v>
+      </c>
+      <c r="R17" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" t="s">
+        <v>40</v>
+      </c>
+      <c r="U17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18">
+        <v>41</v>
+      </c>
+      <c r="G18">
+        <v>122.992268862672</v>
+      </c>
+      <c r="H18">
+        <v>2187</v>
+      </c>
+      <c r="I18">
+        <v>425.4</v>
+      </c>
+      <c r="J18">
+        <v>4.0983606557377</v>
+      </c>
+      <c r="K18">
+        <v>8.196721311475409</v>
+      </c>
+      <c r="L18">
+        <v>52</v>
+      </c>
+      <c r="M18">
+        <v>108.1</v>
+      </c>
+      <c r="N18">
+        <v>118.36</v>
+      </c>
+      <c r="O18">
+        <v>272.28</v>
+      </c>
+      <c r="P18">
+        <v>1789797</v>
+      </c>
+      <c r="Q18">
+        <v>5489729</v>
+      </c>
+      <c r="R18" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" t="s">
+        <v>40</v>
+      </c>
+      <c r="U18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19">
+        <v>41</v>
+      </c>
+      <c r="G19">
+        <v>122.992268862672</v>
+      </c>
+      <c r="H19">
+        <v>2187</v>
+      </c>
+      <c r="I19">
+        <v>425.4</v>
+      </c>
+      <c r="J19">
+        <v>4.0983606557377</v>
+      </c>
+      <c r="K19">
+        <v>8.196721311475409</v>
+      </c>
+      <c r="L19">
+        <v>52</v>
+      </c>
+      <c r="M19">
+        <v>108.1</v>
+      </c>
+      <c r="N19">
+        <v>118.36</v>
+      </c>
+      <c r="O19">
+        <v>272.28</v>
+      </c>
+      <c r="P19">
+        <v>1789797</v>
+      </c>
+      <c r="Q19">
+        <v>5489729</v>
+      </c>
+      <c r="R19" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19" t="s">
+        <v>40</v>
+      </c>
+      <c r="U19" t="s">
+        <v>41</v>
+      </c>
+      <c r="V19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20">
+        <v>41</v>
+      </c>
+      <c r="G20">
+        <v>122.992268862672</v>
+      </c>
+      <c r="H20">
+        <v>2187</v>
+      </c>
+      <c r="I20">
+        <v>425.4</v>
+      </c>
+      <c r="J20">
+        <v>4.0983606557377</v>
+      </c>
+      <c r="K20">
+        <v>8.196721311475409</v>
+      </c>
+      <c r="L20">
+        <v>52</v>
+      </c>
+      <c r="M20">
+        <v>108.1</v>
+      </c>
+      <c r="N20">
+        <v>118.36</v>
+      </c>
+      <c r="O20">
+        <v>272.28</v>
+      </c>
+      <c r="P20">
+        <v>1789797</v>
+      </c>
+      <c r="Q20">
+        <v>5489729</v>
+      </c>
+      <c r="R20" t="s">
+        <v>38</v>
+      </c>
+      <c r="S20" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U20" t="s">
+        <v>41</v>
+      </c>
+      <c r="V20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21">
+        <v>41</v>
+      </c>
+      <c r="G21">
+        <v>122.992268862672</v>
+      </c>
+      <c r="H21">
+        <v>2187</v>
+      </c>
+      <c r="I21">
+        <v>425.4</v>
+      </c>
+      <c r="J21">
+        <v>4.0983606557377</v>
+      </c>
+      <c r="K21">
+        <v>8.196721311475409</v>
+      </c>
+      <c r="L21">
+        <v>52</v>
+      </c>
+      <c r="M21">
+        <v>108.1</v>
+      </c>
+      <c r="N21">
+        <v>118.36</v>
+      </c>
+      <c r="O21">
+        <v>272.28</v>
+      </c>
+      <c r="P21">
+        <v>1789797</v>
+      </c>
+      <c r="Q21">
+        <v>5489729</v>
+      </c>
+      <c r="R21" t="s">
+        <v>38</v>
+      </c>
+      <c r="S21" t="s">
+        <v>39</v>
+      </c>
+      <c r="T21" t="s">
+        <v>40</v>
+      </c>
+      <c r="U21" t="s">
+        <v>41</v>
+      </c>
+      <c r="V21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
         <v>36</v>
       </c>
-      <c r="S16" t="s">
-        <v>37</v>
-      </c>
-      <c r="T16" t="s">
-        <v>38</v>
-      </c>
-      <c r="U16" t="s">
-        <v>39</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <v>41</v>
+      </c>
+      <c r="G22">
+        <v>87.6057898955432</v>
+      </c>
+      <c r="H22">
+        <v>1723</v>
+      </c>
+      <c r="I22">
+        <v>280.1</v>
+      </c>
+      <c r="J22">
+        <v>2.36220472440945</v>
+      </c>
+      <c r="K22">
+        <v>5.51181102362205</v>
+      </c>
+      <c r="L22">
+        <v>41</v>
+      </c>
+      <c r="M22">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="N22">
+        <v>97</v>
+      </c>
+      <c r="O22">
+        <v>158.68</v>
+      </c>
+      <c r="P22">
+        <v>1789797</v>
+      </c>
+      <c r="Q22">
+        <v>5489729</v>
+      </c>
+      <c r="R22" t="s">
+        <v>38</v>
+      </c>
+      <c r="S22" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" t="s">
+        <v>40</v>
+      </c>
+      <c r="U22" t="s">
+        <v>41</v>
+      </c>
+      <c r="V22" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23">
+        <v>41</v>
+      </c>
+      <c r="G23">
+        <v>87.6057898955432</v>
+      </c>
+      <c r="H23">
+        <v>1723</v>
+      </c>
+      <c r="I23">
+        <v>280.1</v>
+      </c>
+      <c r="J23">
+        <v>2.36220472440945</v>
+      </c>
+      <c r="K23">
+        <v>5.51181102362205</v>
+      </c>
+      <c r="L23">
+        <v>41</v>
+      </c>
+      <c r="M23">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="N23">
+        <v>97</v>
+      </c>
+      <c r="O23">
+        <v>158.68</v>
+      </c>
+      <c r="P23">
+        <v>1789797</v>
+      </c>
+      <c r="Q23">
+        <v>5489729</v>
+      </c>
+      <c r="R23" t="s">
+        <v>38</v>
+      </c>
+      <c r="S23" t="s">
+        <v>39</v>
+      </c>
+      <c r="T23" t="s">
+        <v>40</v>
+      </c>
+      <c r="U23" t="s">
+        <v>41</v>
+      </c>
+      <c r="V23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24">
+        <v>41</v>
+      </c>
+      <c r="G24">
+        <v>87.6057898955432</v>
+      </c>
+      <c r="H24">
+        <v>1723</v>
+      </c>
+      <c r="I24">
+        <v>280.1</v>
+      </c>
+      <c r="J24">
+        <v>2.36220472440945</v>
+      </c>
+      <c r="K24">
+        <v>5.51181102362205</v>
+      </c>
+      <c r="L24">
+        <v>41</v>
+      </c>
+      <c r="M24">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="N24">
+        <v>97</v>
+      </c>
+      <c r="O24">
+        <v>158.68</v>
+      </c>
+      <c r="P24">
+        <v>1789797</v>
+      </c>
+      <c r="Q24">
+        <v>5489729</v>
+      </c>
+      <c r="R24" t="s">
+        <v>38</v>
+      </c>
+      <c r="S24" t="s">
+        <v>39</v>
+      </c>
+      <c r="T24" t="s">
+        <v>40</v>
+      </c>
+      <c r="U24" t="s">
+        <v>41</v>
+      </c>
+      <c r="V24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25">
+        <v>41</v>
+      </c>
+      <c r="G25">
+        <v>87.6057898955432</v>
+      </c>
+      <c r="H25">
+        <v>1723</v>
+      </c>
+      <c r="I25">
+        <v>280.1</v>
+      </c>
+      <c r="J25">
+        <v>2.36220472440945</v>
+      </c>
+      <c r="K25">
+        <v>5.51181102362205</v>
+      </c>
+      <c r="L25">
+        <v>41</v>
+      </c>
+      <c r="M25">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="N25">
+        <v>97</v>
+      </c>
+      <c r="O25">
+        <v>158.68</v>
+      </c>
+      <c r="P25">
+        <v>1789797</v>
+      </c>
+      <c r="Q25">
+        <v>5489729</v>
+      </c>
+      <c r="R25" t="s">
+        <v>38</v>
+      </c>
+      <c r="S25" t="s">
+        <v>39</v>
+      </c>
+      <c r="T25" t="s">
+        <v>40</v>
+      </c>
+      <c r="U25" t="s">
+        <v>41</v>
+      </c>
+      <c r="V25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26">
+        <v>41</v>
+      </c>
+      <c r="G26">
+        <v>87.6057898955432</v>
+      </c>
+      <c r="H26">
+        <v>1723</v>
+      </c>
+      <c r="I26">
+        <v>280.1</v>
+      </c>
+      <c r="J26">
+        <v>2.36220472440945</v>
+      </c>
+      <c r="K26">
+        <v>5.51181102362205</v>
+      </c>
+      <c r="L26">
+        <v>41</v>
+      </c>
+      <c r="M26">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="N26">
+        <v>97</v>
+      </c>
+      <c r="O26">
+        <v>158.68</v>
+      </c>
+      <c r="P26">
+        <v>1789797</v>
+      </c>
+      <c r="Q26">
+        <v>5489729</v>
+      </c>
+      <c r="R26" t="s">
+        <v>38</v>
+      </c>
+      <c r="S26" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26" t="s">
+        <v>40</v>
+      </c>
+      <c r="U26" t="s">
+        <v>41</v>
+      </c>
+      <c r="V26" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
